--- a/dist/Planilha de Configuração.xlsx
+++ b/dist/Planilha de Configuração.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LA VITA\TI\BotCity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LA VITA\TI\OptiVita\Bots\01-Lançamento Prescrição\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88CA00D-74B9-472C-B371-D00FF6499973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1483A56D-F7B1-490C-A013-5490F815D38D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="-6615" windowWidth="16410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3250" yWindow="1520" windowWidth="31020" windowHeight="18110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produto" sheetId="1" r:id="rId1"/>
     <sheet name="Via Adm" sheetId="2" r:id="rId2"/>
     <sheet name="Quantitativo Embalagens" sheetId="3" r:id="rId3"/>
-    <sheet name="Quantitativo Embalagens (Orig)" sheetId="4" r:id="rId4"/>
+    <sheet name="Quantitativo Embalagens Módulos" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Produto!$A$1:$B$249</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="318">
   <si>
     <t>Produto Prescrição</t>
   </si>
@@ -105,735 +108,66 @@
     <t>FRASCO VOLUME ATÉ 500ML</t>
   </si>
   <si>
-    <t>ALFAMINO 1:40</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:60</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:30</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:25</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:20</t>
-  </si>
-  <si>
-    <t>ALFARÉ 1:30</t>
-  </si>
-  <si>
-    <t>ALFARE 1:20</t>
-  </si>
-  <si>
-    <t>ALFARÉ 1:25</t>
-  </si>
-  <si>
-    <t>ALFARÉ 1:40</t>
-  </si>
-  <si>
-    <t>ALFARÉ 1:60</t>
-  </si>
-  <si>
-    <t>ALTHERA 1:30</t>
-  </si>
-  <si>
-    <t>NAN AR − DESATIVADO</t>
-  </si>
-  <si>
-    <t>NÃO USAR NAN CONFOR 1 1:30</t>
-  </si>
-  <si>
-    <t>NAN COMFOR 2 1:30</t>
-  </si>
-  <si>
-    <t>NAN COMFOR 3 1:30</t>
-  </si>
-  <si>
-    <t>NAN HA 1:30</t>
-  </si>
-  <si>
-    <t>NAN SL 1:30</t>
-  </si>
-  <si>
-    <t>NAN SOY 1:30</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:30</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:20</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:25</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:40</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 1:60</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 2 1:30</t>
-  </si>
-  <si>
-    <t>NESTOGENO 1 1:30</t>
-  </si>
-  <si>
-    <t>NESTOGENO 2 1:30</t>
-  </si>
-  <si>
     <t>NINHO</t>
   </si>
   <si>
-    <t>PRE NAN 1:30</t>
-  </si>
-  <si>
-    <t>PRE NAN 1:20</t>
-  </si>
-  <si>
-    <t>PRE NAN 1:25</t>
-  </si>
-  <si>
-    <t>PRE NAN 1:40</t>
-  </si>
-  <si>
-    <t>PRE NAN 1:60</t>
-  </si>
-  <si>
-    <t>APTAMIL 1 PREMIUM 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL 1 PREMIUM 1:20</t>
-  </si>
-  <si>
-    <t>APTAMIL  1 PREMIUM 1:25</t>
-  </si>
-  <si>
-    <t>APTAMIL 1 PREMIUM 1:40</t>
-  </si>
-  <si>
-    <t>APTAMIL 1 PREMIUM 1:60</t>
-  </si>
-  <si>
-    <t>APTAMIL 2 PREMIUM 1:30</t>
-  </si>
-  <si>
-    <t>APTANUTRI 3 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL  AR 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL HA 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL PROEXPERT PEPTI 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE PROEXPERT 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE 1:20</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE PROEXPERT 1:25</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE 1:40</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE 1:60</t>
-  </si>
-  <si>
-    <t>APTAMIL S. LACTOSE 1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 1 PROEXPERT  1:30</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 2 PROEXPERT 1:30</t>
-  </si>
-  <si>
     <t>INFATRINI</t>
   </si>
   <si>
-    <t>MILUPA 1 1:30</t>
-  </si>
-  <si>
-    <t>MILUPA 2 1:30</t>
-  </si>
-  <si>
-    <t>NEOCATE ADV 1:30</t>
-  </si>
-  <si>
-    <t>NEOCATE LCP 1:30</t>
-  </si>
-  <si>
-    <t>PREGOMIM PEPTI 1:30</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPTI 1:20</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPTI 1:25</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPTI 1:40</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPTI 1:60</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:30</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:20</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:25</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:40</t>
-  </si>
-  <si>
-    <t>AMINOMED 1:60</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:30</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:20</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:25</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:40</t>
-  </si>
-  <si>
-    <t>ALERGOMED 1:60</t>
-  </si>
-  <si>
-    <t>PREGESTIMIL 1:60</t>
-  </si>
-  <si>
-    <t>PURAMINO 1:30</t>
-  </si>
-  <si>
     <t>IMPACT</t>
   </si>
   <si>
-    <t>IMPACT 1.5</t>
-  </si>
-  <si>
-    <t>NOVASOURCE GI CONTROL</t>
-  </si>
-  <si>
-    <t>ISOSOURCE SOYA</t>
-  </si>
-  <si>
-    <t>ISOSOURCE SOYA FIBER</t>
-  </si>
-  <si>
-    <t>ISOSOURCE MIX</t>
-  </si>
-  <si>
-    <t>ISOSOURCE 1.5</t>
-  </si>
-  <si>
-    <t>NOVASOURCE SENIOR</t>
-  </si>
-  <si>
-    <t>NOVASOURCE HI PROTEIN</t>
-  </si>
-  <si>
-    <t>NOVASOURCE REN</t>
-  </si>
-  <si>
-    <t>NOVASOURCE GC</t>
-  </si>
-  <si>
-    <t>PEPTAMEN PÓ</t>
-  </si>
-  <si>
-    <t>PEPTAMEN 1.5 PÓ </t>
-  </si>
-  <si>
-    <t>NUTREN JUNIOR</t>
-  </si>
-  <si>
-    <t>NUTREN JUNIOR 1.5 PÓ</t>
-  </si>
-  <si>
-    <t>PEPTAMEN JUNIOR</t>
-  </si>
-  <si>
-    <t>PEPTAMEN JUNIOR 1.5 PÓ</t>
-  </si>
-  <si>
-    <t>NUTRI RENAL</t>
-  </si>
-  <si>
-    <t>NUTRI LIVER</t>
-  </si>
-  <si>
-    <t>FRESUBIN HEPA</t>
-  </si>
-  <si>
-    <t>PEPTAMEN PREBIO</t>
-  </si>
-  <si>
-    <t>PEPTAMEN 1.5</t>
-  </si>
-  <si>
-    <t>PEPTAMEN ARG</t>
-  </si>
-  <si>
-    <t>GLUCERNA 1.5 SF</t>
-  </si>
-  <si>
-    <t>NOVASOURCE GC 1.5</t>
-  </si>
-  <si>
     <t>FIBERFOR</t>
   </si>
   <si>
-    <t>FIBER MAIS</t>
-  </si>
-  <si>
-    <t>FIBER MAIS FLORA</t>
-  </si>
-  <si>
     <t>AGUA</t>
   </si>
   <si>
-    <t>WHEY PROTEIN ISOFORT</t>
-  </si>
-  <si>
     <t>TCM</t>
   </si>
   <si>
     <t>SUCRALOSE</t>
   </si>
   <si>
-    <t>CASEINATO DE CALCIO RESOURCE P</t>
-  </si>
-  <si>
-    <t>ESPESSANTE RESOURCE THICKEN UP</t>
-  </si>
-  <si>
     <t>SIMBIOFLORA</t>
   </si>
   <si>
     <t>GLUTAMAX</t>
   </si>
   <si>
-    <t>APTAMIL PROFUTURA 1</t>
-  </si>
-  <si>
     <t>ALBUMINA</t>
   </si>
   <si>
-    <t>NUTEN SENIOR SEM SABOR</t>
-  </si>
-  <si>
-    <t>GLUCERNA 1.5 PÓ</t>
-  </si>
-  <si>
-    <t>BASE DIETA MODULAR</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE DE MILHO</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE DE ARROZ</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE DE AVEIA</t>
-  </si>
-  <si>
-    <t>APTAMIL PROFUTURA 2</t>
-  </si>
-  <si>
-    <t>NUTRIDRINK MAX</t>
-  </si>
-  <si>
-    <t>NEOCATE 1:25</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE TRANSITION</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MULTI CEREAIS</t>
-  </si>
-  <si>
-    <t>NEOCATE 1:45</t>
-  </si>
-  <si>
     <t>CUBISON</t>
   </si>
   <si>
-    <t>NUTRI ENTERAL</t>
-  </si>
-  <si>
-    <t>NEOCATE LCP 1:20</t>
-  </si>
-  <si>
     <t>ESPEFOR</t>
   </si>
   <si>
-    <t>APTAMIL SOJA 2</t>
-  </si>
-  <si>
-    <t>NINHO SEM LACTOSE</t>
-  </si>
-  <si>
-    <t>NAN COMFOR 1 1:25</t>
-  </si>
-  <si>
-    <t>NINHO FASES 1−3</t>
-  </si>
-  <si>
-    <t>NAN COMFOR 1 1:30</t>
-  </si>
-  <si>
-    <t>PEDIASURE 1.0</t>
-  </si>
-  <si>
-    <t>FORTINI COMPLETE 1.0 KCAL</t>
-  </si>
-  <si>
-    <t>SUSTAIN BAUNILHA</t>
-  </si>
-  <si>
-    <t>SUSTAIN CHOCOLATE</t>
-  </si>
-  <si>
-    <t>SUSTAIN MORANGO</t>
-  </si>
-  <si>
     <t>CUBITAN</t>
   </si>
   <si>
     <t>SIMFORT</t>
   </si>
   <si>
-    <t>NEOCATE ADV 1:25</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE VITALON MILHO</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE AVEIA E ARROZ</t>
-  </si>
-  <si>
-    <t>NUTREN 1.0</t>
-  </si>
-  <si>
-    <t>NUTREN 1.5 KCAL/ML</t>
-  </si>
-  <si>
     <t>NEOSPOON</t>
   </si>
   <si>
-    <t>NESLAC COMFOR</t>
-  </si>
-  <si>
-    <t>ESSENCIA DE BAUNILHA</t>
-  </si>
-  <si>
-    <t>ENSURE 1.0</t>
-  </si>
-  <si>
-    <t>NAN SOY 1:25</t>
-  </si>
-  <si>
-    <t>NEOCATE ADV 1:85</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 2:30</t>
-  </si>
-  <si>
-    <t>APTAMIL PROEXPERT PEPTI 1:25</t>
-  </si>
-  <si>
     <t>NEOFORTE</t>
   </si>
   <si>
-    <t>LEITE MOLICO</t>
-  </si>
-  <si>
-    <t>FORTINI NEUTRO 1.0</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MILNUTRI SEM AÇUCA</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE VITALON AVEIA E AR</t>
-  </si>
-  <si>
-    <t>MILNUTRI PREMIUM SOJA</t>
-  </si>
-  <si>
-    <t>APTAMIL PRE TRANSITION 1:25</t>
-  </si>
-  <si>
-    <t>PEPTAMEN PÓ 1.2</t>
-  </si>
-  <si>
-    <t>PEPTAMEN PÓ 1.3</t>
-  </si>
-  <si>
-    <t>PEPTAMEN JUNIOR 1.2 PO</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE VITALON ARROZ</t>
-  </si>
-  <si>
-    <t>MILNUTRI PREMIUM</t>
-  </si>
-  <si>
-    <t>FORTINI PLUS 1.5 KCAL </t>
-  </si>
-  <si>
-    <t>NUTRI LIVER PO</t>
-  </si>
-  <si>
-    <t>PEPTAMEN JUNIOR 1.0 LIQUIDO</t>
-  </si>
-  <si>
-    <t>LEITE INTEGRAL−SACHÊ</t>
-  </si>
-  <si>
-    <t>LEITE DESNATADO−SACHÊ</t>
-  </si>
-  <si>
-    <t>APTAMIL SEM LACTOSE 1:25</t>
-  </si>
-  <si>
-    <t>APTAMIL 2 PREMIUM 1:25</t>
-  </si>
-  <si>
-    <t>NEOCATE ADV 1:120</t>
-  </si>
-  <si>
-    <t>PREGOMIN PEPT 1:45</t>
-  </si>
-  <si>
-    <t>PKU MED B PLUS</t>
-  </si>
-  <si>
-    <t>PKU NUTRI 2</t>
-  </si>
-  <si>
-    <t>LEITE INTEGRAL GLÓRIA</t>
-  </si>
-  <si>
-    <t>NOVASOURCE PROLINE</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE SEM LACTOSE ARROZ </t>
-  </si>
-  <si>
-    <t>ENGROSSANRE SEM LACTOSE ARROZ </t>
-  </si>
-  <si>
-    <t>ENGROSSANTE S LACTOSE ARROZ E </t>
-  </si>
-  <si>
-    <t>ENGROSSANTE ARROZ 3%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE ARROZ 5,8%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE ARROZ 7%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MULTICERAIS 3%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MULTICEREIAIS 5,8%</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE MULTICEREAIS 7%</t>
-  </si>
-  <si>
-    <t>NAN SOY 1:20</t>
-  </si>
-  <si>
-    <t>APTAMIL SENSITIVE ACTIVE 1:30</t>
-  </si>
-  <si>
-    <t>PEDIASURE 1.5</t>
-  </si>
-  <si>
-    <t>ENSURE 1.5</t>
-  </si>
-  <si>
     <t>CARBOFOR</t>
   </si>
   <si>
-    <t>SUSTAGEM KIDS MORANGO</t>
-  </si>
-  <si>
-    <t>LEITE DESNATADO ITALAC</t>
-  </si>
-  <si>
-    <t>ENFAMIL ENFACARE</t>
-  </si>
-  <si>
-    <t>ENFAMIL PREMIUM 1</t>
-  </si>
-  <si>
-    <t>WHEY PROTEIN JUST PROTEIN</t>
-  </si>
-  <si>
-    <t>NAN ESPESSAR 1:30</t>
-  </si>
-  <si>
-    <t>NAN ESPESSAR 1:20</t>
-  </si>
-  <si>
-    <t>NAN ESPESSAR 1:25</t>
-  </si>
-  <si>
     <t>KETOCAL</t>
   </si>
   <si>
-    <t>NAN CONFOR 1 1:20</t>
-  </si>
-  <si>
-    <t>SIMBIOFLORA HEC</t>
-  </si>
-  <si>
     <t>MODULEN</t>
   </si>
   <si>
-    <t>KETOCAL HPC</t>
-  </si>
-  <si>
-    <t>NUTREN JR HPC</t>
-  </si>
-  <si>
-    <t>APTAMIL SENSITIVE ACTIVE 1:25</t>
-  </si>
-  <si>
-    <t>PEDIASURE HPC</t>
-  </si>
-  <si>
-    <t>ENFAMIL PREMATURO </t>
-  </si>
-  <si>
-    <t>ISOSOURCE 1.5 SF</t>
-  </si>
-  <si>
-    <t>NAN SUPREME 1 4:90ML</t>
-  </si>
-  <si>
-    <t>ENFAMIL PREMIUM 2</t>
-  </si>
-  <si>
-    <t>ENFAMIL AR</t>
-  </si>
-  <si>
-    <t>ENFAMIL PREMIUM 1 1:25</t>
-  </si>
-  <si>
-    <t>TCL CALOGEN</t>
-  </si>
-  <si>
-    <t>APTAMIL PROFUTURA 1 1:25</t>
-  </si>
-  <si>
-    <t>NUTREN 1.2</t>
-  </si>
-  <si>
-    <t>NAN SL 1:25</t>
-  </si>
-  <si>
-    <t>NEOCATE LCP 1:23</t>
-  </si>
-  <si>
-    <t>ALFAMINO 1:23</t>
-  </si>
-  <si>
-    <t>NANLAC COMFOR</t>
-  </si>
-  <si>
     <t>ENZYFOR</t>
   </si>
   <si>
-    <t>APTAMIL SOJA 1 HPC</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 2 HPC</t>
-  </si>
-  <si>
-    <t>PEPTAMEN 1.0 38G HPC</t>
-  </si>
-  <si>
-    <t>ENGROSSANTE ZERO AÇUCAR MUCILO</t>
-  </si>
-  <si>
-    <t>NUTREN SENIOR PÓ COM SABOR 1.0</t>
-  </si>
-  <si>
-    <t>TROPHIC INFANT 1.0</t>
-  </si>
-  <si>
-    <t>TROPHIC INFANT 1.2</t>
-  </si>
-  <si>
-    <t>TROPHIC INFANT 1.5</t>
-  </si>
-  <si>
-    <t>INFATRINI 1:22,5</t>
-  </si>
-  <si>
-    <t>NEOCATE LCP 1:22,5</t>
-  </si>
-  <si>
-    <t>APTANUTRI PROFUTURA 3 1:30</t>
-  </si>
-  <si>
-    <t>NANLAC SUPREME 1 A 3 ANOS 1:30</t>
-  </si>
-  <si>
-    <t>NAN CONFOR 2 1:20</t>
-  </si>
-  <si>
-    <t>DIBEN 1.5 KCAL HP</t>
-  </si>
-  <si>
-    <t>ALFARE 1:45</t>
-  </si>
-  <si>
-    <t>NUTREN 1.5 PROTEIN  BAUNILHA</t>
-  </si>
-  <si>
-    <t>NUTREN CONTROL CHOCOLATE</t>
-  </si>
-  <si>
-    <t>NUTREN CONTROL BAUNILHA</t>
-  </si>
-  <si>
-    <t>APTAMIL SOJA 2 PÓ</t>
-  </si>
-  <si>
-    <t>NOVAMIL RICE</t>
-  </si>
-  <si>
-    <t>ISOSOURCE JUNIOR </t>
-  </si>
-  <si>
-    <t>PREGOMIN PLUS 1.0 KCAL 0 A 3 A</t>
-  </si>
-  <si>
-    <t>GGT</t>
-  </si>
-  <si>
     <t>JEJ</t>
   </si>
   <si>
@@ -957,9 +291,6 @@
     <t>SERINGA COMODATO VOL. 41 A 60ML</t>
   </si>
   <si>
-    <t>SERINGA COMODATO VOL. 61 A 80ML</t>
-  </si>
-  <si>
     <t>SERINGA COMODATO VOL. 81 A 100ML</t>
   </si>
   <si>
@@ -967,6 +298,693 @@
   </si>
   <si>
     <t>SERINGA COMODATO VOL. 121 A 160ML</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:40</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:60</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:30</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:25</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:20</t>
+  </si>
+  <si>
+    <t>ALFARÉ 1:30</t>
+  </si>
+  <si>
+    <t>ALFARE 1:20</t>
+  </si>
+  <si>
+    <t>ALFARÉ 1:25</t>
+  </si>
+  <si>
+    <t>ALFARÉ 1:40</t>
+  </si>
+  <si>
+    <t>ALFARÉ 1:60</t>
+  </si>
+  <si>
+    <t>ALTHERA 1:30</t>
+  </si>
+  <si>
+    <t>NAN AR − DESATIVADO</t>
+  </si>
+  <si>
+    <t>NÃO USAR NAN CONFOR 1 1:30</t>
+  </si>
+  <si>
+    <t>NAN COMFOR 2 1:30</t>
+  </si>
+  <si>
+    <t>NAN COMFOR 3 1:30</t>
+  </si>
+  <si>
+    <t>NAN HA 1:30</t>
+  </si>
+  <si>
+    <t>NAN SL 1:30</t>
+  </si>
+  <si>
+    <t>NAN SOY 1:30</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:30</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:20</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:25</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:40</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 1:60</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 2 1:30</t>
+  </si>
+  <si>
+    <t>NESTOGENO 1 1:30</t>
+  </si>
+  <si>
+    <t>NESTOGENO 2 1:30</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:30</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:20</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:25</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:40</t>
+  </si>
+  <si>
+    <t>PRE NAN 1:60</t>
+  </si>
+  <si>
+    <t>APTAMIL 1 PREMIUM 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL 1 PREMIUM 1:20</t>
+  </si>
+  <si>
+    <t>APTAMIL  1 PREMIUM 1:25</t>
+  </si>
+  <si>
+    <t>APTAMIL 1 PREMIUM 1:40</t>
+  </si>
+  <si>
+    <t>APTAMIL 1 PREMIUM 1:60</t>
+  </si>
+  <si>
+    <t>APTAMIL 2 PREMIUM 1:30</t>
+  </si>
+  <si>
+    <t>APTANUTRI 3 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL  AR 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL HA 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PROEXPERT PEPTI 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE PROEXPERT 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE 1:20</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE PROEXPERT 1:25</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE 1:40</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE 1:60</t>
+  </si>
+  <si>
+    <t>APTAMIL S. LACTOSE 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 1 PROEXPERT  1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2 PROEXPERT 1:30</t>
+  </si>
+  <si>
+    <t>MILUPA 1 1:30</t>
+  </si>
+  <si>
+    <t>MILUPA 2 1:30</t>
+  </si>
+  <si>
+    <t>NEOCATE ADV 1:30</t>
+  </si>
+  <si>
+    <t>NEOCATE LCP 1:30</t>
+  </si>
+  <si>
+    <t>PREGOMIM PEPTI 1:30</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPTI 1:20</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPTI 1:25</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPTI 1:40</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPTI 1:60</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:30</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:20</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:25</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:40</t>
+  </si>
+  <si>
+    <t>AMINOMED 1:60</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:30</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:20</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:25</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:40</t>
+  </si>
+  <si>
+    <t>ALERGOMED 1:60</t>
+  </si>
+  <si>
+    <t>PREGESTIMIL 1:60</t>
+  </si>
+  <si>
+    <t>PURAMINO 1:30</t>
+  </si>
+  <si>
+    <t>IMPACT 1.5</t>
+  </si>
+  <si>
+    <t>NOVASOURCE GI CONTROL</t>
+  </si>
+  <si>
+    <t>ISOSOURCE SOYA</t>
+  </si>
+  <si>
+    <t>ISOSOURCE SOYA FIBER</t>
+  </si>
+  <si>
+    <t>ISOSOURCE MIX</t>
+  </si>
+  <si>
+    <t>ISOSOURCE 1.5</t>
+  </si>
+  <si>
+    <t>NOVASOURCE SENIOR</t>
+  </si>
+  <si>
+    <t>NOVASOURCE HI PROTEIN</t>
+  </si>
+  <si>
+    <t>NOVASOURCE REN</t>
+  </si>
+  <si>
+    <t>NOVASOURCE GC</t>
+  </si>
+  <si>
+    <t>PEPTAMEN PÓ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEPTAMEN 1.5 PÓ </t>
+  </si>
+  <si>
+    <t>NUTREN JUNIOR</t>
+  </si>
+  <si>
+    <t>NUTREN JUNIOR 1.5 PÓ</t>
+  </si>
+  <si>
+    <t>PEPTAMEN JUNIOR</t>
+  </si>
+  <si>
+    <t>PEPTAMEN JUNIOR 1.5 PÓ</t>
+  </si>
+  <si>
+    <t>NUTRI RENAL</t>
+  </si>
+  <si>
+    <t>NUTRI LIVER</t>
+  </si>
+  <si>
+    <t>FRESUBIN HEPA</t>
+  </si>
+  <si>
+    <t>PEPTAMEN PREBIO</t>
+  </si>
+  <si>
+    <t>PEPTAMEN 1.5</t>
+  </si>
+  <si>
+    <t>PEPTAMEN ARG</t>
+  </si>
+  <si>
+    <t>GLUCERNA 1.5 SF</t>
+  </si>
+  <si>
+    <t>NOVASOURCE GC 1.5</t>
+  </si>
+  <si>
+    <t>FIBER MAIS</t>
+  </si>
+  <si>
+    <t>FIBER MAIS FLORA</t>
+  </si>
+  <si>
+    <t>WHEY PROTEIN ISOFORT</t>
+  </si>
+  <si>
+    <t>CASEINATO DE CALCIO RESOURCE P</t>
+  </si>
+  <si>
+    <t>ESPESSANTE RESOURCE THICKEN UP</t>
+  </si>
+  <si>
+    <t>NUTEN SENIOR SEM SABOR</t>
+  </si>
+  <si>
+    <t>GLUCERNA 1.5 PÓ</t>
+  </si>
+  <si>
+    <t>BASE DIETA MODULAR</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE DE MILHO</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE DE ARROZ</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE DE AVEIA</t>
+  </si>
+  <si>
+    <t>NUTRIDRINK MAX</t>
+  </si>
+  <si>
+    <t>NEOCATE 1:25</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE TRANSITION</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MULTI CEREAIS</t>
+  </si>
+  <si>
+    <t>NEOCATE 1:45</t>
+  </si>
+  <si>
+    <t>NUTRI ENTERAL</t>
+  </si>
+  <si>
+    <t>NEOCATE LCP 1:20</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2</t>
+  </si>
+  <si>
+    <t>NINHO SEM LACTOSE</t>
+  </si>
+  <si>
+    <t>NAN COMFOR 1 1:25</t>
+  </si>
+  <si>
+    <t>NINHO FASES 1−3</t>
+  </si>
+  <si>
+    <t>NAN COMFOR 1 1:30</t>
+  </si>
+  <si>
+    <t>PEDIASURE 1.0</t>
+  </si>
+  <si>
+    <t>FORTINI COMPLETE 1.0 KCAL</t>
+  </si>
+  <si>
+    <t>SUSTAIN BAUNILHA</t>
+  </si>
+  <si>
+    <t>SUSTAIN CHOCOLATE</t>
+  </si>
+  <si>
+    <t>SUSTAIN MORANGO</t>
+  </si>
+  <si>
+    <t>NEOCATE ADV 1:25</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE VITALON MILHO</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE AVEIA E ARROZ</t>
+  </si>
+  <si>
+    <t>NUTREN 1.0</t>
+  </si>
+  <si>
+    <t>NUTREN 1.5 KCAL/ML</t>
+  </si>
+  <si>
+    <t>NESLAC COMFOR</t>
+  </si>
+  <si>
+    <t>ESSENCIA DE BAUNILHA</t>
+  </si>
+  <si>
+    <t>ENSURE 1.0</t>
+  </si>
+  <si>
+    <t>NAN SOY 1:25</t>
+  </si>
+  <si>
+    <t>NEOCATE ADV 1:85</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 2:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PROEXPERT PEPTI 1:25</t>
+  </si>
+  <si>
+    <t>LEITE MOLICO</t>
+  </si>
+  <si>
+    <t>FORTINI NEUTRO 1.0</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MILNUTRI SEM AÇUCA</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE VITALON AVEIA E AR</t>
+  </si>
+  <si>
+    <t>MILNUTRI PREMIUM SOJA</t>
+  </si>
+  <si>
+    <t>APTAMIL PRE TRANSITION 1:25</t>
+  </si>
+  <si>
+    <t>PEPTAMEN PÓ 1.2</t>
+  </si>
+  <si>
+    <t>PEPTAMEN PÓ 1.3</t>
+  </si>
+  <si>
+    <t>PEPTAMEN JUNIOR 1.2 PO</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE VITALON ARROZ</t>
+  </si>
+  <si>
+    <t>MILNUTRI PREMIUM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FORTINI PLUS 1.5 KCAL </t>
+  </si>
+  <si>
+    <t>NUTRI LIVER PO</t>
+  </si>
+  <si>
+    <t>PEPTAMEN JUNIOR 1.0 LIQUIDO</t>
+  </si>
+  <si>
+    <t>LEITE INTEGRAL−SACHÊ</t>
+  </si>
+  <si>
+    <t>LEITE DESNATADO−SACHÊ</t>
+  </si>
+  <si>
+    <t>APTAMIL SEM LACTOSE 1:25</t>
+  </si>
+  <si>
+    <t>APTAMIL 2 PREMIUM 1:25</t>
+  </si>
+  <si>
+    <t>NEOCATE ADV 1:120</t>
+  </si>
+  <si>
+    <t>PREGOMIN PEPT 1:45</t>
+  </si>
+  <si>
+    <t>PKU MED B PLUS</t>
+  </si>
+  <si>
+    <t>PKU NUTRI 2</t>
+  </si>
+  <si>
+    <t>LEITE INTEGRAL GLÓRIA</t>
+  </si>
+  <si>
+    <t>NOVASOURCE PROLINE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGROSSANTE SEM LACTOSE ARROZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGROSSANRE SEM LACTOSE ARROZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGROSSANTE S LACTOSE ARROZ E </t>
+  </si>
+  <si>
+    <t>ENGROSSANTE ARROZ 3%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE ARROZ 5,8%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE ARROZ 7%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MULTICERAIS 3%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MULTICEREIAIS 5,8%</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE MULTICEREAIS 7%</t>
+  </si>
+  <si>
+    <t>NAN SOY 1:20</t>
+  </si>
+  <si>
+    <t>APTAMIL SENSITIVE ACTIVE 1:30</t>
+  </si>
+  <si>
+    <t>PEDIASURE 1.5</t>
+  </si>
+  <si>
+    <t>ENSURE 1.5</t>
+  </si>
+  <si>
+    <t>SUSTAGEM KIDS MORANGO</t>
+  </si>
+  <si>
+    <t>LEITE DESNATADO ITALAC</t>
+  </si>
+  <si>
+    <t>ENFAMIL ENFACARE</t>
+  </si>
+  <si>
+    <t>ENFAMIL PREMIUM 1</t>
+  </si>
+  <si>
+    <t>WHEY PROTEIN JUST PROTEIN</t>
+  </si>
+  <si>
+    <t>NAN ESPESSAR 1:30</t>
+  </si>
+  <si>
+    <t>NAN ESPESSAR 1:20</t>
+  </si>
+  <si>
+    <t>NAN ESPESSAR 1:25</t>
+  </si>
+  <si>
+    <t>NAN CONFOR 1 1:20</t>
+  </si>
+  <si>
+    <t>SIMBIOFLORA HEC</t>
+  </si>
+  <si>
+    <t>APTAMIL SENSITIVE ACTIVE 1:25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENFAMIL PREMATURO </t>
+  </si>
+  <si>
+    <t>ISOSOURCE 1.5 SF</t>
+  </si>
+  <si>
+    <t>NAN SUPREME 1 4:90ML</t>
+  </si>
+  <si>
+    <t>ENFAMIL PREMIUM 2</t>
+  </si>
+  <si>
+    <t>ENFAMIL AR</t>
+  </si>
+  <si>
+    <t>ENFAMIL PREMIUM 1 1:25</t>
+  </si>
+  <si>
+    <t>TCL CALOGEN</t>
+  </si>
+  <si>
+    <t>APTAMIL PROFUTURA 1 1:25</t>
+  </si>
+  <si>
+    <t>NUTREN 1.2</t>
+  </si>
+  <si>
+    <t>NAN SL 1:25</t>
+  </si>
+  <si>
+    <t>NEOCATE LCP 1:23</t>
+  </si>
+  <si>
+    <t>ALFAMINO 1:23</t>
+  </si>
+  <si>
+    <t>NANLAC COMFOR</t>
+  </si>
+  <si>
+    <t>ENGROSSANTE ZERO AÇUCAR MUCILO</t>
+  </si>
+  <si>
+    <t>NUTREN SENIOR PÓ COM SABOR 1.0</t>
+  </si>
+  <si>
+    <t>TROPHIC INFANT 1.0</t>
+  </si>
+  <si>
+    <t>TROPHIC INFANT 1.2</t>
+  </si>
+  <si>
+    <t>TROPHIC INFANT 1.5</t>
+  </si>
+  <si>
+    <t>INFATRINI 1:22,5</t>
+  </si>
+  <si>
+    <t>NEOCATE LCP 1:22,5</t>
+  </si>
+  <si>
+    <t>APTANUTRI PROFUTURA 3 1:30</t>
+  </si>
+  <si>
+    <t>NANLAC SUPREME 1 A 3 ANOS 1:30</t>
+  </si>
+  <si>
+    <t>NAN CONFOR 2 1:20</t>
+  </si>
+  <si>
+    <t>DIBEN 1.5 KCAL HP</t>
+  </si>
+  <si>
+    <t>ALFARE 1:45</t>
+  </si>
+  <si>
+    <t>NUTREN 1.5 PROTEIN  BAUNILHA</t>
+  </si>
+  <si>
+    <t>NUTREN CONTROL CHOCOLATE</t>
+  </si>
+  <si>
+    <t>NUTREN CONTROL BAUNILHA</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2 PÓ</t>
+  </si>
+  <si>
+    <t>NOVAMIL RICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISOSOURCE JUNIOR </t>
+  </si>
+  <si>
+    <t>PREGOMIN PLUS 1.0 KCAL 0 A 3 A</t>
+  </si>
+  <si>
+    <t>GTT</t>
+  </si>
+  <si>
+    <t>AMIDO DE MILHO</t>
+  </si>
+  <si>
+    <t>NOVAMIL RICE PO</t>
+  </si>
+  <si>
+    <t>1135</t>
+  </si>
+  <si>
+    <t>1136</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 1  1,5: 30</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA 2  1,5:30</t>
+  </si>
+  <si>
+    <t>PEPTAMEN 1.0  PO</t>
+  </si>
+  <si>
+    <t>KETOCAL PO</t>
+  </si>
+  <si>
+    <t>NUTREN JR PO</t>
+  </si>
+  <si>
+    <t>PEDIASURE PO</t>
+  </si>
+  <si>
+    <t>APTAMIL PROFUTURA 1 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL PROFUTURA 2 1:30</t>
+  </si>
+  <si>
+    <t>APTAMIL SOJA</t>
   </si>
 </sst>
 </file>
@@ -1087,9 +1105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1127,7 +1145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1233,7 +1251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1375,7 +1393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1383,20 +1401,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B246"/>
+  <dimension ref="A1:B249"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A248" sqref="A248"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.36328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.36328125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1404,1969 +1422,1997 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>92</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="7" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="B15" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B20" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="7" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="B22" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="B23" s="7">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="B26" s="7">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="B27" s="7">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="B29" s="7">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="B30" s="7">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B31" s="7">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="7" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="B32" s="7">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B33" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="7" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="B34" s="7">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="B35" s="7">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="7" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="B36" s="7">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="7" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="B37" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="7" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="B38" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="7" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B39" s="7">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="B40" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" s="7" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="B41" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" s="7" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="B42" s="7">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" s="7" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="B43" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" s="7" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B44" s="7">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" s="7" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="B45" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="7" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="B46" s="7">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" s="7" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="B47" s="7">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" s="7" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="B48" s="7">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="7" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="B49" s="7">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" s="7" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="B50" s="7">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" s="7" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="B51" s="7">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="7" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B52" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" s="7" t="s">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="B53" s="7">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" s="7" t="s">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="B54" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="7" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="B55" s="7">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" s="7" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="B56" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" s="7" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B57" s="7">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" s="7" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
       <c r="B58" s="7">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="7" t="s">
-        <v>82</v>
+        <v>144</v>
       </c>
       <c r="B59" s="7">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="B60" s="7">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" s="7" t="s">
-        <v>84</v>
+        <v>146</v>
       </c>
       <c r="B61" s="7">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" s="7" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="B62" s="7">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" s="7" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
       <c r="B63" s="7">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
-        <v>87</v>
+        <v>149</v>
       </c>
       <c r="B64" s="7">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="B65" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" s="7" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="B66" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" s="7" t="s">
-        <v>90</v>
+        <v>152</v>
       </c>
       <c r="B67" s="7">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="7" t="s">
-        <v>91</v>
+        <v>153</v>
       </c>
       <c r="B68" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" s="7" t="s">
-        <v>92</v>
+        <v>154</v>
       </c>
       <c r="B69" s="7">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="7" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="B70" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" s="7" t="s">
-        <v>94</v>
+        <v>156</v>
       </c>
       <c r="B71" s="7">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" s="7" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="B72" s="7">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" s="7" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="B73" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" s="7" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="B74" s="7">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" s="7" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="B75" s="7">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" s="7" t="s">
-        <v>99</v>
+        <v>160</v>
       </c>
       <c r="B76" s="7">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" s="7" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="B77" s="7">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="B78" s="7">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="B79" s="7">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="B80" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="B81" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="7" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="B82" s="7">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="B83" s="7">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="B84" s="7">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="B85" s="7">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" s="7" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="B86" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" s="7" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="B87" s="7">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" s="7" t="s">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="B88" s="7">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="B89" s="7">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="B90" s="7">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" s="7" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B91" s="7">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="B92" s="7">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="B93" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
-        <v>117</v>
+        <v>178</v>
       </c>
       <c r="B94" s="7">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
-        <v>118</v>
+        <v>179</v>
       </c>
       <c r="B95" s="7">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
-        <v>119</v>
+        <v>180</v>
       </c>
       <c r="B96" s="7">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" s="7" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="B97" s="7">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" s="7" t="s">
-        <v>121</v>
+        <v>182</v>
       </c>
       <c r="B98" s="7">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" s="7" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="B99" s="7">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" s="7" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="B100" s="7">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" s="7" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="B101" s="7">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" s="7" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B102" s="7">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" s="7" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="B103" s="7">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>127</v>
+        <v>30</v>
       </c>
       <c r="B104" s="7">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="B105" s="7">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>129</v>
+        <v>186</v>
       </c>
       <c r="B106" s="7">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>130</v>
+        <v>187</v>
       </c>
       <c r="B107" s="7">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>131</v>
+        <v>32</v>
       </c>
       <c r="B108" s="7">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B109" s="7">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="B110" s="7">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B111" s="7">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="B112" s="7">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="B113" s="7">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="B114" s="7">
         <v>999</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
-        <v>138</v>
+        <v>191</v>
       </c>
       <c r="B115" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
-        <v>139</v>
+        <v>192</v>
       </c>
       <c r="B116" s="7">
         <v>1001</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="B117" s="7">
         <v>1002</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="B118" s="7">
         <v>1003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="B119" s="7">
         <v>1004</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="B120" s="7">
         <v>1005</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="B121" s="7">
         <v>1006</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="B122" s="7">
         <v>1007</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
       <c r="B123" s="7">
         <v>1008</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" s="7" t="s">
-        <v>147</v>
+        <v>35</v>
       </c>
       <c r="B124" s="7">
         <v>1009</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
-        <v>148</v>
+        <v>199</v>
       </c>
       <c r="B125" s="7">
         <v>1010</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
-        <v>149</v>
+        <v>200</v>
       </c>
       <c r="B126" s="7">
         <v>1011</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" s="7" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
       <c r="B127" s="7">
         <v>1012</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="B128" s="7">
         <v>1013</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="B129" s="7">
         <v>1014</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
-        <v>153</v>
+        <v>203</v>
       </c>
       <c r="B130" s="7">
         <v>1015</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
       <c r="B131" s="7">
         <v>1016</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" s="7" t="s">
-        <v>155</v>
+        <v>205</v>
       </c>
       <c r="B132" s="7">
         <v>1017</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="B133" s="7">
         <v>1018</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
-        <v>157</v>
+        <v>207</v>
       </c>
       <c r="B134" s="7">
         <v>1019</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" s="7" t="s">
-        <v>158</v>
+        <v>208</v>
       </c>
       <c r="B135" s="7">
         <v>1020</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" s="7" t="s">
-        <v>159</v>
+        <v>209</v>
       </c>
       <c r="B136" s="7">
         <v>1021</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="B137" s="7">
         <v>1022</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B138" s="7">
         <v>1023</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
-        <v>162</v>
+        <v>38</v>
       </c>
       <c r="B139" s="7">
         <v>1024</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
-        <v>163</v>
+        <v>211</v>
       </c>
       <c r="B140" s="7">
         <v>1025</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="B141" s="7">
         <v>1026</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="B142" s="7">
         <v>1027</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" s="7" t="s">
-        <v>166</v>
+        <v>214</v>
       </c>
       <c r="B143" s="7">
         <v>1028</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" s="7" t="s">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="B144" s="7">
         <v>1029</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" s="7" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="B145" s="7">
         <v>1030</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" s="7" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="B146" s="7">
         <v>1031</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="B147" s="7">
         <v>1032</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
-        <v>171</v>
+        <v>218</v>
       </c>
       <c r="B148" s="7">
         <v>1033</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="B149" s="7">
         <v>1035</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="B150" s="7">
         <v>1036</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
-        <v>174</v>
+        <v>221</v>
       </c>
       <c r="B151" s="7">
         <v>1037</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
-        <v>175</v>
+        <v>222</v>
       </c>
       <c r="B152" s="7">
         <v>1038</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
-        <v>176</v>
+        <v>40</v>
       </c>
       <c r="B153" s="7">
         <v>1039</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
-        <v>177</v>
+        <v>223</v>
       </c>
       <c r="B154" s="7">
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="B155" s="7">
         <v>1041</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="B156" s="7">
         <v>1042</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
-        <v>180</v>
+        <v>226</v>
       </c>
       <c r="B157" s="7">
         <v>1043</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="B158" s="7">
         <v>1044</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
-        <v>182</v>
+        <v>228</v>
       </c>
       <c r="B159" s="7">
         <v>1045</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
-        <v>183</v>
+        <v>229</v>
       </c>
       <c r="B160" s="7">
         <v>1046</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="B161" s="7">
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>185</v>
+        <v>231</v>
       </c>
       <c r="B162" s="7">
         <v>1048</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
-        <v>186</v>
+        <v>232</v>
       </c>
       <c r="B163" s="7">
         <v>1049</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
-        <v>187</v>
+        <v>233</v>
       </c>
       <c r="B164" s="7">
         <v>1050</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" s="7" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="B165" s="7">
         <v>1051</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" s="7" t="s">
-        <v>189</v>
+        <v>235</v>
       </c>
       <c r="B166" s="7">
         <v>1052</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>190</v>
+        <v>236</v>
       </c>
       <c r="B167" s="7">
         <v>1053</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
-        <v>191</v>
+        <v>237</v>
       </c>
       <c r="B168" s="7">
         <v>1054</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
-        <v>192</v>
+        <v>238</v>
       </c>
       <c r="B169" s="7">
         <v>1055</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
-        <v>193</v>
+        <v>239</v>
       </c>
       <c r="B170" s="7">
         <v>1056</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
       <c r="B171" s="7">
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>195</v>
+        <v>241</v>
       </c>
       <c r="B172" s="7">
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="B173" s="7">
         <v>1059</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="B174" s="7">
         <v>1060</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
-        <v>198</v>
+        <v>244</v>
       </c>
       <c r="B175" s="7">
         <v>1061</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="B176" s="7">
         <v>1063</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="B177" s="7">
         <v>1064</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="B178" s="7">
         <v>1065</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="B179" s="7">
         <v>1066</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="B180" s="7">
         <v>1067</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="B181" s="7">
         <v>1068</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="B182" s="7">
         <v>1069</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
-        <v>203</v>
+        <v>249</v>
       </c>
       <c r="B183" s="7">
         <v>1070</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="B184" s="7">
         <v>1071</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
-        <v>205</v>
+        <v>251</v>
       </c>
       <c r="B185" s="7">
         <v>1072</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
-        <v>206</v>
+        <v>252</v>
       </c>
       <c r="B186" s="7">
         <v>1073</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
-        <v>207</v>
+        <v>253</v>
       </c>
       <c r="B187" s="7">
         <v>1074</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
-        <v>208</v>
+        <v>254</v>
       </c>
       <c r="B188" s="7">
         <v>1075</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="B189" s="7">
         <v>1076</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="B190" s="7">
         <v>1077</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
       <c r="B191" s="7">
         <v>1078</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
-        <v>212</v>
+        <v>258</v>
       </c>
       <c r="B192" s="7">
         <v>1079</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
-        <v>213</v>
+        <v>259</v>
       </c>
       <c r="B193" s="7">
         <v>1080</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="B194" s="7">
         <v>1081</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
-        <v>215</v>
+        <v>260</v>
       </c>
       <c r="B195" s="7">
         <v>1082</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="B196" s="7">
         <v>1083</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="B197" s="7">
         <v>1084</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="B198" s="7">
         <v>1085</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c r="B199" s="7">
         <v>1086</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="B200" s="7">
         <v>1087</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
-        <v>221</v>
+        <v>266</v>
       </c>
       <c r="B201" s="7">
         <v>1088</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" s="7" t="s">
-        <v>222</v>
+        <v>267</v>
       </c>
       <c r="B202" s="7">
         <v>1089</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" s="7" t="s">
-        <v>223</v>
+        <v>42</v>
       </c>
       <c r="B203" s="7">
         <v>1090</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="B204" s="7">
         <v>1091</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="B205" s="7">
         <v>1092</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
-        <v>226</v>
+        <v>43</v>
       </c>
       <c r="B206" s="7">
         <v>1093</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
-        <v>227</v>
+        <v>312</v>
       </c>
       <c r="B207" s="7">
         <v>1094</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>228</v>
+        <v>313</v>
       </c>
       <c r="B208" s="7">
         <v>1095</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="B209" s="7">
         <v>1096</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
-        <v>230</v>
+        <v>314</v>
       </c>
       <c r="B210" s="7">
         <v>1097</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="B211" s="7">
         <v>1098</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="B212" s="7">
         <v>1099</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
       <c r="B213" s="7">
         <v>1100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="B214" s="7">
         <v>1101</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" s="7" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="B215" s="7">
         <v>1102</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="B216" s="7">
         <v>1103</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" s="7" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="B217" s="7">
         <v>1104</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" s="7" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="B218" s="7">
         <v>1105</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" s="7" t="s">
-        <v>239</v>
+        <v>279</v>
       </c>
       <c r="B219" s="7">
         <v>1106</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="B220" s="7">
         <v>1107</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="B221" s="7">
         <v>1108</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="B222" s="7">
         <v>1109</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" s="7" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="B223" s="7">
         <v>1110</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="B224" s="7">
         <v>1111</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="B225" s="7">
         <v>1112</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" s="7" t="s">
-        <v>246</v>
+        <v>310</v>
       </c>
       <c r="B226" s="7">
         <v>1113</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" s="7" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="B227" s="7">
         <v>1114</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="B228" s="7">
         <v>1115</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="B229" s="7">
         <v>1116</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="B230" s="7">
         <v>1117</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
       <c r="B231" s="7">
         <v>1118</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="B232" s="7">
         <v>1119</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="B233" s="7">
         <v>1120</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="B234" s="7">
         <v>1121</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="B235" s="7">
         <v>1122</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="B236" s="7">
         <v>1123</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="B237" s="7">
         <v>1124</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="B238" s="7">
         <v>1125</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="B239" s="7">
         <v>1126</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="B240" s="7">
         <v>1127</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="B241" s="7">
         <v>1128</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="B242" s="7">
         <v>1129</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="B243" s="7">
         <v>1131</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="B244" s="7">
         <v>1132</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="B245" s="7">
         <v>1133</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="B246" s="7">
         <v>1134</v>
       </c>
     </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B249" xr:uid="{0D3E9C9D-623A-4F14-8780-3D1FD8923C7D}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B247:B249" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -3375,16 +3421,16 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.90625" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3392,23 +3438,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3416,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -3424,7 +3470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -3432,7 +3478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -3441,7 +3487,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B7">
+  <sortState ref="A2:B7">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3451,25 +3497,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -3484,199 +3530,199 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8">
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="9">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="C3" s="9">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="D3" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="8">
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="D4" s="9">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="8">
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>289</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9">
-        <v>151</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="8">
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="9">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D6" s="9">
         <v>100</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="9">
         <v>101</v>
       </c>
       <c r="D7" s="9">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9">
-        <v>301</v>
+        <v>121</v>
       </c>
       <c r="D8" s="9">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="8">
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9">
         <v>1</v>
       </c>
       <c r="D9" s="9">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8">
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>298</v>
+        <v>66</v>
       </c>
       <c r="C10" s="9">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="D10" s="9">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="8">
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="C11" s="9">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D11" s="9">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="C12" s="9">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="D12" s="9">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="8">
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="C13" s="9">
         <v>1</v>
@@ -3685,151 +3731,151 @@
         <v>100</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8">
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9">
         <v>101</v>
       </c>
       <c r="D14" s="9">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8">
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D15" s="9">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="8">
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C16" s="9">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D16" s="9">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="C17" s="9">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D17" s="9">
-        <v>60</v>
+        <v>240</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="8">
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C18" s="9">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D18" s="9">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8">
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C19" s="9">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="D19" s="9">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="8">
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C20" s="9">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="D20" s="9">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="8">
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C21" s="9">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="D21" s="9">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4">
         <v>25</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -3838,15 +3884,15 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4">
         <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
         <v>51</v>
@@ -3855,15 +3901,15 @@
         <v>100</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4">
         <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
         <v>101</v>
@@ -3872,15 +3918,15 @@
         <v>150</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4">
         <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C25" s="2">
         <v>151</v>
@@ -3889,10 +3935,10 @@
         <v>200</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3909,7 +3955,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -3926,7 +3972,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
         <v>25</v>
       </c>
@@ -3943,12 +3989,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -3957,15 +4003,15 @@
         <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="C30" s="2">
         <v>101</v>
@@ -3974,15 +4020,15 @@
         <v>240</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -3991,15 +4037,15 @@
         <v>100</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>25</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2">
         <v>101</v>
@@ -4008,15 +4054,15 @@
         <v>240</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>25</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -4025,15 +4071,15 @@
         <v>100</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="C34" s="2">
         <v>101</v>
@@ -4042,10 +4088,10 @@
         <v>240</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -4059,10 +4105,10 @@
         <v>10</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -4076,10 +4122,10 @@
         <v>20</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -4093,10 +4139,10 @@
         <v>30</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="4">
         <v>25</v>
       </c>
@@ -4110,10 +4156,10 @@
         <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="4">
         <v>25</v>
       </c>
@@ -4127,10 +4173,10 @@
         <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="4">
         <v>25</v>
       </c>
@@ -4144,10 +4190,10 @@
         <v>70</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="4">
         <v>25</v>
       </c>
@@ -4161,10 +4207,10 @@
         <v>120</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="4">
         <v>25</v>
       </c>
@@ -4178,10 +4224,10 @@
         <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>25</v>
       </c>
@@ -4195,10 +4241,10 @@
         <v>180</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="8">
         <v>28</v>
       </c>
@@ -4215,7 +4261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="8">
         <v>28</v>
       </c>
@@ -4232,7 +4278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="8">
         <v>28</v>
       </c>
@@ -4249,7 +4295,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="8">
         <v>28</v>
       </c>
@@ -4266,7 +4312,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="8">
         <v>28</v>
       </c>
@@ -4280,10 +4326,10 @@
         <v>50</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="8">
         <v>28</v>
       </c>
@@ -4297,10 +4343,10 @@
         <v>60</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="8">
         <v>28</v>
       </c>
@@ -4314,10 +4360,10 @@
         <v>70</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="8">
         <v>28</v>
       </c>
@@ -4331,10 +4377,10 @@
         <v>80</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="8">
         <v>28</v>
       </c>
@@ -4348,10 +4394,10 @@
         <v>90</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="8">
         <v>28</v>
       </c>
@@ -4365,10 +4411,10 @@
         <v>100</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="8">
         <v>28</v>
       </c>
@@ -4382,15 +4428,15 @@
         <v>110</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="8">
         <v>28</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C55" s="9">
         <v>1</v>
@@ -4399,15 +4445,15 @@
         <v>50</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="8">
         <v>28</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C56" s="9">
         <v>51</v>
@@ -4416,15 +4462,15 @@
         <v>100</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="8">
         <v>28</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C57" s="9">
         <v>101</v>
@@ -4433,15 +4479,15 @@
         <v>150</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="8">
         <v>28</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C58" s="9">
         <v>151</v>
@@ -4450,15 +4496,15 @@
         <v>200</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="8">
         <v>28</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="C59" s="9">
         <v>1</v>
@@ -4467,15 +4513,15 @@
         <v>100</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="8">
         <v>28</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="C60" s="9">
         <v>101</v>
@@ -4484,15 +4530,15 @@
         <v>240</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="8">
         <v>28</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="C61" s="9">
         <v>1</v>
@@ -4501,15 +4547,15 @@
         <v>100</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="8">
         <v>28</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="C62" s="9">
         <v>101</v>
@@ -4518,15 +4564,15 @@
         <v>240</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="8">
         <v>28</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="C63" s="9">
         <v>1</v>
@@ -4535,15 +4581,15 @@
         <v>100</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="8">
         <v>28</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="C64" s="9">
         <v>101</v>
@@ -4552,10 +4598,10 @@
         <v>240</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="8">
         <v>28</v>
       </c>
@@ -4569,10 +4615,10 @@
         <v>100</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="8">
         <v>28</v>
       </c>
@@ -4586,10 +4632,10 @@
         <v>300</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="8">
         <v>28</v>
       </c>
@@ -4603,12 +4649,12 @@
         <v>500</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>17</v>
@@ -4623,9 +4669,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>17</v>
@@ -4640,9 +4686,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>17</v>
@@ -4657,9 +4703,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>17</v>
@@ -4674,9 +4720,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>17</v>
@@ -4688,12 +4734,12 @@
         <v>50</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>17</v>
@@ -4705,12 +4751,12 @@
         <v>60</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>17</v>
@@ -4722,12 +4768,12 @@
         <v>70</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>17</v>
@@ -4739,12 +4785,12 @@
         <v>80</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>17</v>
@@ -4756,12 +4802,12 @@
         <v>90</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>17</v>
@@ -4773,12 +4819,12 @@
         <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>17</v>
@@ -4790,15 +4836,15 @@
         <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -4807,15 +4853,15 @@
         <v>50</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2">
         <v>51</v>
@@ -4824,15 +4870,15 @@
         <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C81" s="2">
         <v>101</v>
@@ -4841,15 +4887,15 @@
         <v>150</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>289</v>
+        <v>66</v>
       </c>
       <c r="C82" s="2">
         <v>151</v>
@@ -4858,12 +4904,12 @@
         <v>200</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>18</v>
@@ -4878,9 +4924,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>18</v>
@@ -4895,9 +4941,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>18</v>
@@ -4912,12 +4958,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2">
         <v>1</v>
@@ -4926,15 +4972,15 @@
         <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>298</v>
+        <v>75</v>
       </c>
       <c r="C87" s="2">
         <v>101</v>
@@ -4943,15 +4989,15 @@
         <v>240</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
@@ -4960,15 +5006,15 @@
         <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>299</v>
+        <v>76</v>
       </c>
       <c r="C89" s="2">
         <v>101</v>
@@ -4977,15 +5023,15 @@
         <v>240</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="C90" s="2">
         <v>1</v>
@@ -4994,15 +5040,15 @@
         <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
-        <v>272</v>
+        <v>49</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>302</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2">
         <v>101</v>
@@ -5011,7 +5057,381 @@
         <v>240</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>304</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="8">
+        <v>17</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="9">
+        <v>1</v>
+      </c>
+      <c r="D92" s="9">
+        <v>10</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="8">
+        <v>17</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C93" s="9">
+        <v>11</v>
+      </c>
+      <c r="D93" s="9">
+        <v>20</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="8">
+        <v>17</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="9">
+        <v>21</v>
+      </c>
+      <c r="D94" s="9">
+        <v>30</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="8">
+        <v>17</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="9">
+        <v>31</v>
+      </c>
+      <c r="D95" s="9">
+        <v>40</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="8">
+        <v>17</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="9">
+        <v>41</v>
+      </c>
+      <c r="D96" s="9">
+        <v>60</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="8">
+        <v>17</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="9">
+        <v>61</v>
+      </c>
+      <c r="D97" s="9">
+        <v>70</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="8">
+        <v>17</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="9">
+        <v>71</v>
+      </c>
+      <c r="D98" s="9">
+        <v>120</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="8">
+        <v>17</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="9">
+        <v>121</v>
+      </c>
+      <c r="D99" s="9">
+        <v>130</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="8">
+        <v>17</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="9">
+        <v>131</v>
+      </c>
+      <c r="D100" s="9">
+        <v>180</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="8">
+        <v>17</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C101" s="9">
+        <v>1</v>
+      </c>
+      <c r="D101" s="9">
+        <v>50</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="8">
+        <v>17</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C102" s="9">
+        <v>51</v>
+      </c>
+      <c r="D102" s="9">
+        <v>100</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="8">
+        <v>17</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C103" s="9">
+        <v>101</v>
+      </c>
+      <c r="D103" s="9">
+        <v>150</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="8">
+        <v>17</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C104" s="9">
+        <v>151</v>
+      </c>
+      <c r="D104" s="9">
+        <v>200</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="8">
+        <v>17</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="9">
+        <v>1</v>
+      </c>
+      <c r="D105" s="9">
+        <v>100</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="8">
+        <v>17</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="9">
+        <v>101</v>
+      </c>
+      <c r="D106" s="9">
+        <v>300</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="8">
+        <v>17</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="9">
+        <v>301</v>
+      </c>
+      <c r="D107" s="9">
+        <v>500</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="8">
+        <v>17</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C108" s="9">
+        <v>1</v>
+      </c>
+      <c r="D108" s="9">
+        <v>100</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="8">
+        <v>17</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C109" s="9">
+        <v>101</v>
+      </c>
+      <c r="D109" s="9">
+        <v>240</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="8">
+        <v>17</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="9">
+        <v>1</v>
+      </c>
+      <c r="D110" s="9">
+        <v>100</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="8">
+        <v>17</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="9">
+        <v>101</v>
+      </c>
+      <c r="D111" s="9">
+        <v>240</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="8">
+        <v>17</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C112" s="9">
+        <v>1</v>
+      </c>
+      <c r="D112" s="9">
+        <v>100</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="8">
+        <v>17</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="9">
+        <v>101</v>
+      </c>
+      <c r="D113" s="9">
+        <v>240</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -5021,26 +5441,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA8BE154-9FC6-4AB0-AE11-0AE5E5631DAF}">
-  <dimension ref="A1:E44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6511EA6E-EB8B-4E1E-AAE4-D6B9ED491513}">
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>271</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -5055,420 +5475,420 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8">
+        <v>4</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="9">
+        <v>20</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2">
-        <v>30</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="D3" s="9">
         <v>40</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="E3" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9">
         <v>41</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D4" s="9">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>61</v>
+      </c>
+      <c r="D5" s="9">
+        <v>80</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9">
+        <v>81</v>
+      </c>
+      <c r="D6" s="9">
+        <v>100</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9">
+        <v>101</v>
+      </c>
+      <c r="D7" s="9">
+        <v>120</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9">
+        <v>121</v>
+      </c>
+      <c r="D8" s="9">
+        <v>160</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
         <v>50</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="E9" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>4</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="9">
         <v>51</v>
       </c>
-      <c r="D7" s="2">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2">
-        <v>70</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="D10" s="9">
+        <v>100</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="9">
+        <v>101</v>
+      </c>
+      <c r="D11" s="9">
+        <v>150</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="9">
+        <v>151</v>
+      </c>
+      <c r="D12" s="9">
+        <v>200</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>300</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="9">
+        <v>301</v>
+      </c>
+      <c r="D14" s="9">
+        <v>500</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>100</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>4</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="9">
+        <v>101</v>
+      </c>
+      <c r="D16" s="9">
+        <v>240</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8">
+        <v>4</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9">
+        <v>1</v>
+      </c>
+      <c r="D17" s="9">
+        <v>100</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>4</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="9">
+        <v>101</v>
+      </c>
+      <c r="D18" s="9">
+        <v>240</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>4</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="9">
+        <v>1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>100</v>
+      </c>
+      <c r="E19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>4</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="9">
+        <v>101</v>
+      </c>
+      <c r="D20" s="9">
+        <v>240</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D10" s="2">
-        <v>90</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="2">
-        <v>91</v>
-      </c>
-      <c r="D11" s="2">
-        <v>100</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="2">
-        <v>101</v>
-      </c>
-      <c r="D12" s="2">
-        <v>110</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="4">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
         <v>50</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="E21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>25</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="2">
         <v>51</v>
-      </c>
-      <c r="D14" s="2">
-        <v>100</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="2">
-        <v>101</v>
-      </c>
-      <c r="D15" s="2">
-        <v>150</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C16" s="2">
-        <v>151</v>
-      </c>
-      <c r="D16" s="2">
-        <v>200</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="2">
-        <v>100</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="2">
-        <v>101</v>
-      </c>
-      <c r="D18" s="2">
-        <v>300</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2">
-        <v>301</v>
-      </c>
-      <c r="D19" s="2">
-        <v>500</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C21" s="2">
-        <v>101</v>
-      </c>
-      <c r="D21" s="2">
-        <v>240</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
       </c>
       <c r="D22" s="2">
         <v>100</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>272</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="4">
+        <v>25</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>299</v>
+        <v>66</v>
       </c>
       <c r="C23" s="2">
         <v>101</v>
       </c>
       <c r="D23" s="2">
-        <v>240</v>
+        <v>150</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>272</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>25</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>302</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="D24" s="2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>272</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>302</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -5477,95 +5897,95 @@
         <v>100</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2">
         <v>101</v>
       </c>
       <c r="D27" s="2">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="4">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="4">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D29" s="2">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="4">
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C30" s="2">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="4">
         <v>25</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="C31" s="2">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="D31" s="2">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="4">
         <v>25</v>
       </c>
@@ -5573,16 +5993,16 @@
         <v>17</v>
       </c>
       <c r="C32" s="2">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>25</v>
       </c>
@@ -5590,16 +6010,16 @@
         <v>17</v>
       </c>
       <c r="C33" s="2">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="4">
         <v>25</v>
       </c>
@@ -5607,16 +6027,16 @@
         <v>17</v>
       </c>
       <c r="C34" s="2">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="D34" s="2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="4">
         <v>25</v>
       </c>
@@ -5624,16 +6044,16 @@
         <v>17</v>
       </c>
       <c r="C35" s="2">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="4">
         <v>25</v>
       </c>
@@ -5641,16 +6061,16 @@
         <v>17</v>
       </c>
       <c r="C36" s="2">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="4">
         <v>25</v>
       </c>
@@ -5658,132 +6078,863 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
+        <v>61</v>
+      </c>
+      <c r="D37" s="2">
+        <v>70</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>25</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="2">
+        <v>71</v>
+      </c>
+      <c r="D38" s="2">
+        <v>120</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>25</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="2">
+        <v>121</v>
+      </c>
+      <c r="D39" s="2">
+        <v>130</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2">
         <v>131</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D40" s="2">
         <v>180</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="2">
+      <c r="E40" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="8">
+        <v>28</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="9">
         <v>1</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D41" s="9">
+        <v>10</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="8">
+        <v>28</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="9">
+        <v>11</v>
+      </c>
+      <c r="D42" s="9">
         <v>20</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>4</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="2">
+      <c r="E42" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="8">
+        <v>28</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="9">
         <v>21</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D43" s="9">
+        <v>30</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="8">
+        <v>28</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="9">
+        <v>31</v>
+      </c>
+      <c r="D44" s="9">
         <v>40</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>4</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="2">
+      <c r="E44" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="8">
+        <v>28</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="9">
         <v>41</v>
       </c>
-      <c r="D40" s="2">
+      <c r="D45" s="9">
+        <v>50</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="8">
+        <v>28</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="9">
+        <v>51</v>
+      </c>
+      <c r="D46" s="9">
         <v>60</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>4</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2">
+      <c r="E46" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="8">
+        <v>28</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="9">
         <v>61</v>
       </c>
-      <c r="D41" s="2">
+      <c r="D47" s="9">
+        <v>70</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="8">
+        <v>28</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="9">
+        <v>71</v>
+      </c>
+      <c r="D48" s="9">
         <v>80</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" s="2">
+      <c r="E48" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="8">
+        <v>28</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="9">
         <v>81</v>
       </c>
-      <c r="D42" s="2">
+      <c r="D49" s="9">
+        <v>90</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="8">
+        <v>28</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50" s="9">
+        <v>91</v>
+      </c>
+      <c r="D50" s="9">
         <v>100</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
-        <v>4</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="2">
+      <c r="E50" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="8">
+        <v>28</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="9">
         <v>101</v>
       </c>
-      <c r="D43" s="2">
-        <v>120</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>4</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="2">
-        <v>121</v>
-      </c>
-      <c r="D44" s="2">
-        <v>160</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>312</v>
+      <c r="D51" s="9">
+        <v>110</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="8">
+        <v>28</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="9">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9">
+        <v>50</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="8">
+        <v>28</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="9">
+        <v>51</v>
+      </c>
+      <c r="D53" s="9">
+        <v>100</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="8">
+        <v>28</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="9">
+        <v>101</v>
+      </c>
+      <c r="D54" s="9">
+        <v>150</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="8">
+        <v>28</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="9">
+        <v>151</v>
+      </c>
+      <c r="D55" s="9">
+        <v>200</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="8">
+        <v>28</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1</v>
+      </c>
+      <c r="D56" s="9">
+        <v>100</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="8">
+        <v>28</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C57" s="9">
+        <v>101</v>
+      </c>
+      <c r="D57" s="9">
+        <v>240</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="8">
+        <v>28</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1</v>
+      </c>
+      <c r="D58" s="9">
+        <v>100</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="8">
+        <v>28</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="9">
+        <v>101</v>
+      </c>
+      <c r="D59" s="9">
+        <v>240</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="8">
+        <v>28</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1</v>
+      </c>
+      <c r="D60" s="9">
+        <v>100</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="8">
+        <v>28</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="9">
+        <v>101</v>
+      </c>
+      <c r="D61" s="9">
+        <v>240</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="8">
+        <v>28</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1</v>
+      </c>
+      <c r="D62" s="9">
+        <v>100</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="8">
+        <v>28</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="9">
+        <v>101</v>
+      </c>
+      <c r="D63" s="9">
+        <v>300</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="8">
+        <v>28</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="9">
+        <v>301</v>
+      </c>
+      <c r="D64" s="9">
+        <v>500</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="2">
+        <v>11</v>
+      </c>
+      <c r="D66" s="2">
+        <v>20</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C67" s="2">
+        <v>21</v>
+      </c>
+      <c r="D67" s="2">
+        <v>30</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="2">
+        <v>31</v>
+      </c>
+      <c r="D68" s="2">
+        <v>40</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="2">
+        <v>41</v>
+      </c>
+      <c r="D69" s="2">
+        <v>50</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="2">
+        <v>51</v>
+      </c>
+      <c r="D70" s="2">
+        <v>60</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="2">
+        <v>61</v>
+      </c>
+      <c r="D71" s="2">
+        <v>70</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2">
+        <v>80</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="2">
+        <v>81</v>
+      </c>
+      <c r="D73" s="2">
+        <v>90</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="2">
+        <v>91</v>
+      </c>
+      <c r="D74" s="2">
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="2">
+        <v>101</v>
+      </c>
+      <c r="D75" s="2">
+        <v>110</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="2">
+        <v>0</v>
+      </c>
+      <c r="D76" s="2">
+        <v>50</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" s="2">
+        <v>51</v>
+      </c>
+      <c r="D77" s="2">
+        <v>100</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="2">
+        <v>101</v>
+      </c>
+      <c r="D78" s="2">
+        <v>150</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="2">
+        <v>151</v>
+      </c>
+      <c r="D79" s="2">
+        <v>200</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2">
+        <v>300</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="2">
+        <v>301</v>
+      </c>
+      <c r="D81" s="2">
+        <v>500</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2">
+        <v>100</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="2">
+        <v>101</v>
+      </c>
+      <c r="D83" s="2">
+        <v>240</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="2">
+        <v>1</v>
+      </c>
+      <c r="D84" s="2">
+        <v>100</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="2">
+        <v>101</v>
+      </c>
+      <c r="D85" s="2">
+        <v>240</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1</v>
+      </c>
+      <c r="D86" s="2">
+        <v>100</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" s="2">
+        <v>101</v>
+      </c>
+      <c r="D87" s="2">
+        <v>240</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
